--- a/SRS/SRS9_CUSTOMER SERVICE MANAGEMENT SYSTEM.xlsx
+++ b/SRS/SRS9_CUSTOMER SERVICE MANAGEMENT SYSTEM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\ajayk\Customer-Service-Management-System\SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9877DBC6-8850-4422-BF5F-D7A4DC78201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -306,15 +312,9 @@
     <t>NFR05</t>
   </si>
   <si>
-    <t>Level 0 DFD (context diagram), Level 1 DFD, Flow diagram and pseudocode for 2 complex functions logic.</t>
-  </si>
-  <si>
     <t>NFR06</t>
   </si>
   <si>
-    <t xml:space="preserve">RTM, Plan, Presentation </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -331,12 +331,18 @@
   </si>
   <si>
     <t xml:space="preserve">HRISHIKESH  </t>
+  </si>
+  <si>
+    <t>Level 0 DFD (context diagram), Level 1 DFD, Flow diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTM and Presentation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -607,23 +613,29 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -638,26 +650,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,7 +680,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -841,7 +847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,9 +880,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,6 +932,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,335 +1124,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1024" width="11.5546875" style="3"/>
+    <col min="1" max="1024" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="35">
         <v>0.1</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="28">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="36">
         <v>0.1</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.1</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -1421,40 +1495,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="F16:J16 A16:C16 A10:C10">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
@@ -1481,23 +1521,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="93.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
-    <col min="5" max="1024" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="93.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
+    <col min="5" max="1024" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1546,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1560,7 @@
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
     </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1532,7 +1572,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>25</v>
       </c>
@@ -1540,7 +1580,7 @@
       <c r="C4" s="43"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -1582,7 +1622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -1594,7 +1634,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
@@ -1608,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
@@ -1636,19 +1676,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>43</v>
       </c>
@@ -1656,7 +1696,7 @@
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>44</v>
       </c>
@@ -1670,7 +1710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>48</v>
       </c>
@@ -1698,7 +1738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>50</v>
       </c>
@@ -1706,7 +1746,7 @@
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
@@ -1720,7 +1760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>53</v>
       </c>
@@ -1734,7 +1774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>55</v>
       </c>
@@ -1748,7 +1788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>57</v>
       </c>
@@ -1762,12 +1802,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>32</v>
@@ -1776,12 +1816,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>32</v>
@@ -1790,10 +1830,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
     </row>
@@ -1820,46 +1860,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1873,6 +1913,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E092000DCB123B4CADB3A306A70C54D2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f010aba3f2a70a1587f3a6c1acc227fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18423733-67d9-4f0c-86d9-ba9fd8af3664" xmlns:ns3="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3797d1b3b3de23eb169f9e3a7e3d458b" ns2:_="" ns3:_="">
     <xsd:import namespace="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
@@ -2089,27 +2149,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1628D7D0-8A7B-4750-B4EE-0292DA046ED7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BF5E1E-F4E7-4DB2-83B3-960E7E97C509}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD8BC11F-91F4-42E3-BD30-6D8F1611B141}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2126,29 +2191,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BF5E1E-F4E7-4DB2-83B3-960E7E97C509}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1628D7D0-8A7B-4750-B4EE-0292DA046ED7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>